--- a/cw2/CW2_gr5.xlsx
+++ b/cw2/CW2_gr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>ESTYMACJA  PUNKTOWA ,  PRZEDZIAŁOWA  I TESTOWANIE HIPOTEZ</t>
   </si>
@@ -121,18 +121,6 @@
     <t>b=sr +d</t>
   </si>
   <si>
-    <t>P ( a &lt; m &lt; b )= 1-alfa</t>
-  </si>
-  <si>
-    <t>Przedział (a ; b)  pokrywa średnią zawartości tłuszczu w jogurcie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> z prawdopodobieństwem 1-alfa  (%). Dokładność oszacowania wynosi d</t>
-  </si>
-  <si>
-    <t>m = sr +- d z prawdopodobieństwem 1-alfa</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Przedział ufności dla odchylenia standardowego</t>
   </si>
   <si>
@@ -148,18 +136,6 @@
     <t>b=s/(1-c)</t>
   </si>
   <si>
-    <t>P (a &lt; sigma &lt; b)= 1-alfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedział (a ; b)  pokrywa odchylenie standardowe zawartości tłuszczu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">w jogurcie z prawdopodobieństwem 1-alfa  (%). </t>
-  </si>
-  <si>
-    <t>Przedział (a ; b)  pokrywa odchylenie standardowe zawartości tłuszczu</t>
-  </si>
-  <si>
     <t>ĆWICZENIE 2,3</t>
   </si>
   <si>
@@ -167,6 +143,66 @@
   </si>
   <si>
     <t>od tej wartości 0,61%.</t>
+  </si>
+  <si>
+    <t>P ( 2,41% &lt; m &lt; 2,65% )= 0,95</t>
+  </si>
+  <si>
+    <t>Przedział (2,41 ; 2,65)  pokrywa średnią zawartości tłuszczu w jogurcie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> z prawdopodobieństwem 0,95  (95%). Dokładność oszacowania wynosi 0,12</t>
+  </si>
+  <si>
+    <t>m = 2,53 +- 0,12% z prawdopodobieństwem 95%</t>
+  </si>
+  <si>
+    <t>P ( 2,37 &lt; m &lt; 2,69 )= 0,99</t>
+  </si>
+  <si>
+    <t>Przedział (2,37 ; 2,69)  pokrywa średnią zawartości tłuszczu w jogurcie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> z prawdopodobieństwem 0,99  (99%). Dokładność oszacowania wynosi 0,16</t>
+  </si>
+  <si>
+    <t>m = 2,53 +- 0,16 z prawdopodobieństwem 99%</t>
+  </si>
+  <si>
+    <t>1) Wiekszy wspolczynnik unfosci (wieksze zaufanie do przedzialu) =</t>
+  </si>
+  <si>
+    <t>wieksza dlugosc przedzialu ufnosc = mniejsza dokladnosc ?????</t>
+  </si>
+  <si>
+    <t>1-alfa=</t>
+  </si>
+  <si>
+    <t>s=</t>
+  </si>
+  <si>
+    <t>d0=</t>
+  </si>
+  <si>
+    <t>n&gt;</t>
+  </si>
+  <si>
+    <t>P (0,54 &lt; sigma &lt; 0,71)= 0,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedział (0,54 ; 0,71)  pokrywa odchylenie standardowe zawartości tłuszczu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w jogurcie z prawdopodobieństwem 0,95  (95%). </t>
+  </si>
+  <si>
+    <t>P (0,52 &lt; sigma &lt; 0,75)= 0,99</t>
+  </si>
+  <si>
+    <t>Przedział (0,52 ; 0,75)  pokrywa odchylenie standardowe zawartości tłuszczu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w jogurcie z prawdopodobieństwem 0,99  (99%). </t>
   </si>
 </sst>
 </file>
@@ -626,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -641,7 +677,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -944,12 +980,12 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -975,236 +1011,342 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="24">
+        <f>1-G34</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="H35" s="24">
+        <f>1-H34</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="24">
+        <f>D24</f>
+        <v>0.61408468471376154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="24">
+        <f>NORMSINV(1-(G35/2))</f>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="H36" s="24">
+        <f>NORMSINV(1-(H35/2))</f>
+        <v>2.5758293035488999</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="24">
+        <f>G36*$D$24/SQRT($D$21)</f>
+        <v>0.12035838654966066</v>
+      </c>
+      <c r="H37" s="24">
+        <f>H36*$D$24/SQRT($D$21)</f>
+        <v>0.15817773257462941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="18">
+        <f>$D$22-G37</f>
+        <v>2.4096416134503391</v>
+      </c>
+      <c r="H38" s="18">
+        <f>$D$22-H37</f>
+        <v>2.3718222674253706</v>
+      </c>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38">
+        <f>(H36*J35/J36) ^ 2</f>
+        <v>250.20195082450977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="G39" s="18">
+        <f>$D$22+G37</f>
+        <v>2.6503583865496605</v>
+      </c>
+      <c r="H39" s="18">
+        <f>$D$22+H37</f>
+        <v>2.688177732574629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="26"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="26"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="26"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="H61" s="23">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="24">
+        <v>1.96</v>
+      </c>
+      <c r="H63" s="24">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="D64" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>44</v>
+      <c r="G64" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H64" s="24">
+        <v>0.18</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="H65" s="18">
+        <v>0.52</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="18">
+        <v>0.71</v>
+      </c>
+      <c r="H66" s="18">
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>44</v>
+      <c r="A69" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>47</v>
+      <c r="A71" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C81" s="5"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
+      <c r="A72" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="22"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C87" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cw2/CW2_gr5.xlsx
+++ b/cw2/CW2_gr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>ESTYMACJA  PUNKTOWA ,  PRZEDZIAŁOWA  I TESTOWANIE HIPOTEZ</t>
   </si>
@@ -203,6 +203,81 @@
   </si>
   <si>
     <t xml:space="preserve">w jogurcie z prawdopodobieństwem 0,99  (99%). </t>
+  </si>
+  <si>
+    <t>Testowanie danych</t>
+  </si>
+  <si>
+    <t>liczba danych</t>
+  </si>
+  <si>
+    <t>srednia</t>
+  </si>
+  <si>
+    <t>odchylenie std</t>
+  </si>
+  <si>
+    <t>Testowanie</t>
+  </si>
+  <si>
+    <t>1. Poziom istotnosci alfa=</t>
+  </si>
+  <si>
+    <t>2. Hipotezy</t>
+  </si>
+  <si>
+    <t>H0:m=m0</t>
+  </si>
+  <si>
+    <t>m0=</t>
+  </si>
+  <si>
+    <t>średnia zawrtość tluszczu w jogurcie wynosi 2,5%</t>
+  </si>
+  <si>
+    <t>Alternatywna</t>
+  </si>
+  <si>
+    <t>Zerowa</t>
+  </si>
+  <si>
+    <t>H1:m&gt;m0</t>
+  </si>
+  <si>
+    <t>średnia zawrtość tluszczu w jogurcie przekracza 2,5%</t>
+  </si>
+  <si>
+    <t>3.Statystyka testowa proba duza</t>
+  </si>
+  <si>
+    <t>u0=(śr-m0)/s*pierwiastek(n)</t>
+  </si>
+  <si>
+    <t>u0=</t>
+  </si>
+  <si>
+    <t>4. Obszar krytyczny, H1:m&gt;m0</t>
+  </si>
+  <si>
+    <t>p=P(u&gt;u0)=</t>
+  </si>
+  <si>
+    <t>p=</t>
+  </si>
+  <si>
+    <t>5.Decyzja statystyczna</t>
+  </si>
+  <si>
+    <t>Ponieważ p=0,3126&gt;alfa=0,08, to na poziomie istotności 0,08</t>
+  </si>
+  <si>
+    <t>nie ma podstaw do odrzucenia hipotezy zerowej, żezawartość</t>
+  </si>
+  <si>
+    <t>tłuszczu w jogurcie wynosi 2,5%, przy hipotezie alternatywnej,</t>
+  </si>
+  <si>
+    <t>że wartosć ta przekracza 2,5%.</t>
   </si>
 </sst>
 </file>
@@ -332,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -360,6 +435,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -662,15 +744,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
@@ -1314,7 +1397,9 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="22"/>
+      <c r="A85" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -1323,30 +1408,154 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+    </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C87" s="5"/>
+      <c r="A87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
+      <c r="A90" s="26" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E92" s="5"/>
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0.05</v>
+      </c>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100">
+        <f>(C87-E95)/C88*SQRT(C86)</f>
+        <v>0.49180327868852136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103">
+        <f>1-_xlfn.NORM.S.DIST(E100,1)</f>
+        <v>0.31142920925283768</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="26" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
